--- a/school_rankings.xlsx
+++ b/school_rankings.xlsx
@@ -25,7 +25,7 @@
     <t>highGrade</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>Zip Code</t>
   </si>
   <si>
     <t>stars</t>
